--- a/app/database/312000BF/PCE INV 401003.xlsx
+++ b/app/database/312000BF/PCE INV 401003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\database\312000BF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\312000BF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CB4F39-0FA4-4B72-8B98-AF6832CF9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E888C85C-930B-46D8-8171-FCD1301C9BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="2730" windowWidth="27075" windowHeight="11775" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="16080" yWindow="3360" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date:</t>
   </si>
@@ -131,25 +131,16 @@
     <t>Payment Instalments</t>
   </si>
   <si>
-    <t>Marco Feng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Creative Design </t>
-  </si>
-  <si>
     <t>Level 1, 67 Albert Avenue, Chatswood</t>
   </si>
   <si>
     <t>Mechanical Service design and documentation</t>
   </si>
   <si>
-    <t>Kick off</t>
-  </si>
-  <si>
-    <t>Final Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total: </t>
+    <t xml:space="preserve">Aotong medical pty Ltd </t>
+  </si>
+  <si>
+    <t>The full set of documentation</t>
   </si>
 </sst>
 </file>
@@ -611,9 +602,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -937,8 +930,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,9 +996,7 @@
       <c r="U4" s="69"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1028,7 +1019,7 @@
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1135,7 +1126,7 @@
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="55"/>
@@ -1159,47 +1150,43 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="54"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="54"/>
-      <c r="G15" s="55">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="48">
-        <v>2400</v>
+      <c r="G15" s="72">
+        <v>4800</v>
+      </c>
+      <c r="H15" s="71">
+        <v>4800</v>
       </c>
       <c r="I15" s="23">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="J15" s="23">
-        <v>2640</v>
+        <v>5280</v>
       </c>
       <c r="L15" s="36"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="36"/>
       <c r="E16" s="32"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="51">
-        <v>2400</v>
-      </c>
+      <c r="G16" s="51"/>
       <c r="H16" s="52"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -1210,12 +1197,8 @@
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="72">
-        <v>4800</v>
-      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="52"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -1468,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="25">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="J39" s="25">
-        <v>2640</v>
+        <v>5280</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
